--- a/examples/experiment1/mnist_odenet_False.xlsx
+++ b/examples/experiment1/mnist_odenet_False.xlsx
@@ -11,6 +11,11 @@
     <sheet name="percentage_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="percentage_0.75" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="percentage_1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="percentage_0.01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="percentage_0.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percentage_0.1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="percentage_0.15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="percentage_0.2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6484,4 +6489,7584 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4049012660980225</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1030666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0946</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.317355990409851</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.312280408541362</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.313691449165344</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6909816265106201</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62.32799456000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1129833333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.295047044754028</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.323670856157939</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.319689822196961</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7438473701477051</v>
+      </c>
+      <c r="C4" t="n">
+        <v>97.22452118563776</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1021833333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.28378701210022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.285243082046509</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.284743285179138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6296947002410889</v>
+      </c>
+      <c r="C5" t="n">
+        <v>130.5677794250841</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1181166666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.248615980148315</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.260777858893077</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.260256409645081</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6097941398620605</v>
+      </c>
+      <c r="C6" t="n">
+        <v>154.1555789502959</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2113833333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2136</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.200642168521881</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.21099499464035</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.208800864219666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.609689474105835</v>
+      </c>
+      <c r="C7" t="n">
+        <v>176.8139250588942</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3422</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.11441957950592</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.124232812722524</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.121978044509888</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.619908332824707</v>
+      </c>
+      <c r="C8" t="n">
+        <v>198.5794419240128</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1421</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.192308723926544</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.203143390019735</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.201771664619446</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6059763431549072</v>
+      </c>
+      <c r="C9" t="n">
+        <v>219.4873105802334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4349833333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4417</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.074660003185272</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.072185285886129</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.071569991111756</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.635606050491333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>239.5713257890029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2942833333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2956</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.894561231136322</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.928152898947398</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.924415612220764</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5963950157165527</v>
+      </c>
+      <c r="C11" t="n">
+        <v>258.8639506633263</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1805166666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1834</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.132439315319061</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.117477679252624</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.111953353881836</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6052477359771729</v>
+      </c>
+      <c r="C12" t="n">
+        <v>277.3963691400281</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4280333333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4342</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.835883796215057</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.85684962272644</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.848542976379395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6055994033813477</v>
+      </c>
+      <c r="C13" t="n">
+        <v>295.198536384398</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4058833333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.766615480184555</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.780087961753209</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.775142216682434</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6046993732452393</v>
+      </c>
+      <c r="C14" t="n">
+        <v>312.2992272086926</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.34405</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3379</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.639144867658615</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.701194469134013</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.698500716686249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5902042388916016</v>
+      </c>
+      <c r="C15" t="n">
+        <v>328.7260825827535</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3066</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.811822474002838</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.875574407974879</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.877953636646271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6397414207458496</v>
+      </c>
+      <c r="C16" t="n">
+        <v>344.5056543119234</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3946666666666667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3898</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.44411963224411</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.590371298789978</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.579992616176605</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6347603797912598</v>
+      </c>
+      <c r="C17" t="n">
+        <v>359.6634479544729</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5885666666666667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5854</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.341036647558212</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.356073166926702</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.347946810722351</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5965545177459717</v>
+      </c>
+      <c r="C18" t="n">
+        <v>374.2239640479094</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4038833333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4144</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.700094878673553</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.798207447926203</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.785644054412842</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5949103832244873</v>
+      </c>
+      <c r="C19" t="n">
+        <v>388.2107377108052</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6310333333333333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.127239853143692</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.202300306161245</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.192918276786804</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6117198467254639</v>
+      </c>
+      <c r="C20" t="n">
+        <v>401.6463766841559</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6693666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6713</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9436927139759064</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.031767070293427</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.022174602746964</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6044950485229492</v>
+      </c>
+      <c r="C21" t="n">
+        <v>414.5525978737571</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6695</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8954844772815704</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9670096337795258</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9641535520553589</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6107254028320312</v>
+      </c>
+      <c r="C22" t="n">
+        <v>426.9502624526655</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7040833333333333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7062</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7072940468788147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8732380598783493</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8584787607192993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6261172294616699</v>
+      </c>
+      <c r="C23" t="n">
+        <v>438.8594095804833</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7668166666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7669</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6801211982965469</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8135879238446554</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.802964860200882</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6193146705627441</v>
+      </c>
+      <c r="C24" t="n">
+        <v>450.2992887939679</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8215166666666667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8243</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5605783611536026</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6100194767117501</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5951205879449845</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6030833721160889</v>
+      </c>
+      <c r="C25" t="n">
+        <v>461.2883911213233</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7380833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7405</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7079015672206879</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7734442263841629</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7564550101757049</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.608851432800293</v>
+      </c>
+      <c r="C26" t="n">
+        <v>471.8444789704625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5253333333333333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5244</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.034091413021088</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.147625396649043</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.139674019813538</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5970845222473145</v>
+      </c>
+      <c r="C27" t="n">
+        <v>481.9846148395552</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6401</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9200475066900253</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.989494389295578</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9715610861778259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5711185932159424</v>
+      </c>
+      <c r="C28" t="n">
+        <v>491.7251888962634</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8304333333333334</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8351</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6932748407125473</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7301171173652014</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7163563430309295</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.584998607635498</v>
+      </c>
+      <c r="C29" t="n">
+        <v>501.0819454702469</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.80885</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8122</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.51064632833004</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6029574404160182</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5867163389921188</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6090908050537109</v>
+      </c>
+      <c r="C30" t="n">
+        <v>510.0700085017568</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8353666666666667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8425</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4989781677722931</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5471945414940517</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5338346689939499</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6071774959564209</v>
+      </c>
+      <c r="C31" t="n">
+        <v>518.7039059874538</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8591166666666666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8662</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3884227275848389</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4904302527507146</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4723495274782181</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5642125606536865</v>
+      </c>
+      <c r="C32" t="n">
+        <v>526.9975934629633</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7832333333333333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4792088270187378</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6890426367521286</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6740881770849227</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6109030246734619</v>
+      </c>
+      <c r="C33" t="n">
+        <v>534.9644765601247</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8461666666666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4231015741825104</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5023070961236954</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4793050915002823</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6025986671447754</v>
+      </c>
+      <c r="C34" t="n">
+        <v>542.6174326753943</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.86965</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8761</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3567555248737335</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4219402074813843</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.40438472032547</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.595369815826416</v>
+      </c>
+      <c r="C35" t="n">
+        <v>549.9688317844275</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8956833333333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8987000000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2687890790402889</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3557283403972785</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3438341334462166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5719070434570312</v>
+      </c>
+      <c r="C36" t="n">
+        <v>557.0305564364824</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8918666666666667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9034</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2525506503880024</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.3744902700185776</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3498191297054291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5804598331451416</v>
+      </c>
+      <c r="C37" t="n">
+        <v>563.814020960965</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9200833333333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9244</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1633232738822699</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2655581094324589</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2522073552012444</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.642998218536377</v>
+      </c>
+      <c r="C38" t="n">
+        <v>570.3301899171595</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9304</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9358</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1366518698632717</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2403428239127</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.2283521138131618</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5870332717895508</v>
+      </c>
+      <c r="C39" t="n">
+        <v>576.5895958169657</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9179666666666667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9229000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1330063324421644</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.2659582150479158</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.2569733992218971</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6145491600036621</v>
+      </c>
+      <c r="C40" t="n">
+        <v>582.6023561492901</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9381333333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9429</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1079999338835478</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.2070070126404365</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.192957966029644</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6802916526794434</v>
+      </c>
+      <c r="C41" t="n">
+        <v>588.4381897336071</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9294</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1146290320903063</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.2353712019821008</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.2165294297039509</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6227250099182129</v>
+      </c>
+      <c r="C42" t="n">
+        <v>595.0902090497261</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9279333333333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9324</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1087486874312162</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.2454126873364051</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2305503621697426</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6144309043884277</v>
+      </c>
+      <c r="C43" t="n">
+        <v>600.373971403233</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9268999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1040294207632542</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2450545718272527</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.233538655936718</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5942652225494385</v>
+      </c>
+      <c r="C44" t="n">
+        <v>605.4495324377997</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9418166666666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9473</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.07479980122298002</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1950922444462776</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1710353538393974</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5931930541992188</v>
+      </c>
+      <c r="C45" t="n">
+        <v>610.3250961161161</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9191</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9249000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1148837488144636</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2704871817181508</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.2590714082121849</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5975937843322754</v>
+      </c>
+      <c r="C46" t="n">
+        <v>615.0085431320078</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9374833333333333</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9427</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.09888242930173874</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.2176882673054933</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1967678487300873</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6145467758178711</v>
+      </c>
+      <c r="C47" t="n">
+        <v>619.5074436485197</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8814</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8812</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1487041302025318</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3866993221143881</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3760215222835541</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.651456356048584</v>
+      </c>
+      <c r="C48" t="n">
+        <v>623.8290695340679</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8960166666666667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9051</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1953227743506432</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3541932374238968</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3218028366565704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5863580703735352</v>
+      </c>
+      <c r="C49" t="n">
+        <v>627.9804061164383</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6546833333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9174474626779556</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.266014018654823</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.227517998218536</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5915639400482178</v>
+      </c>
+      <c r="C50" t="n">
+        <v>631.9681634736304</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8862166666666667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8949</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2084314376115799</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3649356295665105</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3441253945231438</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.6011283397674561</v>
+      </c>
+      <c r="C51" t="n">
+        <v>635.7987872797971</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9136166666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9185</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1762147843837738</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.3020082513491313</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2818539172410965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4829037189483643</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0993</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1032</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.303543391435042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.30371949672699</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.301807141304016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6075296401977539</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72.21522717503298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.37245</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3739</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.039229978685793</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.030229775110881</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.028218221664429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6023454666137695</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.57190732877748</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2988333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3031</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.239327565483425</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.24653750260671</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.247127103805542</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5832901000976562</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.75918804813615</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3209833333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.937737775885541</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.923322528600693</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.912989854812622</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5742292404174805</v>
+      </c>
+      <c r="C6" t="n">
+        <v>109.4311881057941</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3990166666666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.883687858996184</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.876820788780848</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.868357396125794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6753311157226562</v>
+      </c>
+      <c r="C7" t="n">
+        <v>117.1070255029536</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.362698793411255</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.352886398633321</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.338830900192261</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6149082183837891</v>
+      </c>
+      <c r="C8" t="n">
+        <v>123.1986797002655</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6083833333333334</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.322475065355716</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.313747368256251</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.295604264736176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5959362983703613</v>
+      </c>
+      <c r="C9" t="n">
+        <v>128.0331034822699</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6726</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6734</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9381802859513656</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9586281448602676</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9482164204120636</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5910744667053223</v>
+      </c>
+      <c r="C10" t="n">
+        <v>131.8697712488553</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8652166666666666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8804999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5203038894611857</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5095819453398387</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4874475330114365</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.634443998336792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>134.9146055900126</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8292333333333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.519826343526011</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5612278386950493</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5349443286657334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6228914260864258</v>
+      </c>
+      <c r="C12" t="n">
+        <v>137.3310296144837</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9323166666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9405</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2142160758376122</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2474480946858724</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2237564116716385</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6124410629272461</v>
+      </c>
+      <c r="C13" t="n">
+        <v>139.2487382356437</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9290166666666667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9351</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2176324200371037</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.241596824179093</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2243908427655697</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6277585029602051</v>
+      </c>
+      <c r="C14" t="n">
+        <v>140.7706591892628</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.92815</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2012436765691508</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2495519953469435</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2264953583478928</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6147289276123047</v>
+      </c>
+      <c r="C15" t="n">
+        <v>141.9784773966316</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9481666666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9519</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1595210841168528</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.17955153696239</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1653778523206711</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6048891544342041</v>
+      </c>
+      <c r="C16" t="n">
+        <v>142.9370191780442</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9574166666666667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1241182589336582</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1484047576785087</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1336037687957287</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5835111141204834</v>
+      </c>
+      <c r="C17" t="n">
+        <v>143.6977316272425</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9322166666666667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9363</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1880326083172923</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2275158939262231</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2114114545285702</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5990569591522217</v>
+      </c>
+      <c r="C18" t="n">
+        <v>144.3014438926718</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.96765</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9707</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.07661071298239024</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1110902099559705</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1001580141484737</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5879063606262207</v>
+      </c>
+      <c r="C19" t="n">
+        <v>144.7805585697275</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.95955</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9635</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1102168339750041</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1399782259017229</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1283662796020508</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5995087623596191</v>
+      </c>
+      <c r="C20" t="n">
+        <v>145.1607908209422</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9662500000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9693000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07353776960593203</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1105313573653499</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1011054661124945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6081135272979736</v>
+      </c>
+      <c r="C21" t="n">
+        <v>145.4625485666081</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9443</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9487</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1318819245890431</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1905334501216809</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1692464292049408</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5812149047851562</v>
+      </c>
+      <c r="C22" t="n">
+        <v>145.7020278237687</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9689</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06527625591210696</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.106566594603161</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.08714847639203072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6170186996459961</v>
+      </c>
+      <c r="C23" t="n">
+        <v>145.8920819828878</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9553666666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9601</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.08582437904956548</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1564165646831195</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1371799848973751</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6240718364715576</v>
+      </c>
+      <c r="C24" t="n">
+        <v>146.0429116782305</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.04668892142565354</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.09178486320500573</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08183509595692158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6191239356994629</v>
+      </c>
+      <c r="C25" t="n">
+        <v>146.162612278852</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9709833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9723000000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05561416984900185</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1005288237084945</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.092068050801754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6362314224243164</v>
+      </c>
+      <c r="C26" t="n">
+        <v>146.2576083852661</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9320166666666667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9395</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1464900508846926</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2318054996430874</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2099385231733322</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6157338619232178</v>
+      </c>
+      <c r="C27" t="n">
+        <v>146.3329986522068</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9608166666666667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0907921445272539</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1322763899962107</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1232794616371393</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6041073799133301</v>
+      </c>
+      <c r="C28" t="n">
+        <v>146.7765842033109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9599833333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9623</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.07284373668548853</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1379044481863578</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1258786886930466</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.60538649559021</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146.7448652742729</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9729166666666667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04068403468345818</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.09044393083701531</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0756685309112072</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6178953647613525</v>
+      </c>
+      <c r="C30" t="n">
+        <v>147.0461129601973</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9618</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9631999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.07955350799728995</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1345107941577832</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1208779636770487</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6370925903320312</v>
+      </c>
+      <c r="C31" t="n">
+        <v>146.9587671455906</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9655</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9691</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.06413734671862228</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1251725858698289</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1129187036305666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6026949882507324</v>
+      </c>
+      <c r="C32" t="n">
+        <v>146.8894482595022</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9663666666666667</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.05353213441760644</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1174150325357914</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.09955159984529019</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5872287750244141</v>
+      </c>
+      <c r="C33" t="n">
+        <v>146.8344358013762</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9712166666666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03862621995579937</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.09615775318816304</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08674194253981113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5996696949005127</v>
+      </c>
+      <c r="C34" t="n">
+        <v>146.8423806301076</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02180239936822782</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.07605300342353681</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.06641776040196419</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6824977397918701</v>
+      </c>
+      <c r="C35" t="n">
+        <v>147.5705391884274</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9799166666666667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9832</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01789379962112593</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07431636451122661</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.06404911307618022</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5929598808288574</v>
+      </c>
+      <c r="C36" t="n">
+        <v>152.2884266246801</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9811</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02333341052998667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0828646509287258</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0675328304991126</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7032454013824463</v>
+      </c>
+      <c r="C37" t="n">
+        <v>152.10659119324</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9724166666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03112126635792463</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1058762966655195</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.09349455796182156</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6741297245025635</v>
+      </c>
+      <c r="C38" t="n">
+        <v>160.0530964172311</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.97965</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9797</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01838654174428919</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07441329001449049</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.07668485753238201</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7205100059509277</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.1254967674393</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9731333333333333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02496824288011893</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09831362832337617</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0829982366412878</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.676753044128418</v>
+      </c>
+      <c r="C40" t="n">
+        <v>167.4884519058336</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9623333333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9641999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.06042057875057925</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.1317132521420717</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1125625751912594</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5970618724822998</v>
+      </c>
+      <c r="C41" t="n">
+        <v>163.4595435476608</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02180658533926243</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.08147745844908058</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.07722597569227219</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.722243070602417</v>
+      </c>
+      <c r="C42" t="n">
+        <v>160.4476726976191</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9765666666666667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9782</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02208664262181391</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.08694492955692112</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.07636251244693995</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5887465476989746</v>
+      </c>
+      <c r="C43" t="n">
+        <v>165.8390199047182</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.97915</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01115315338677686</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.07613855067174882</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.05965329576283693</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6823501586914062</v>
+      </c>
+      <c r="C44" t="n">
+        <v>163.6885748505547</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.96755</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9719</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02913182380649706</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1299225428452094</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1024130702018738</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6766319274902344</v>
+      </c>
+      <c r="C45" t="n">
+        <v>169.1941474890003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9804</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9802</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01311985530343879</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.07397657188897332</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.06571247652173043</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6754441261291504</v>
+      </c>
+      <c r="C46" t="n">
+        <v>173.4964072261116</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01185906241121499</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08458621488728871</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.07515456825494767</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6325316429138184</v>
+      </c>
+      <c r="C47" t="n">
+        <v>176.3426022488667</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9699</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9733000000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03609000543213409</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1095006723267337</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.09040365517139434</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6221668720245361</v>
+      </c>
+      <c r="C48" t="n">
+        <v>170.8738720636206</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9708</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9748</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03090999621654982</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1080682820174843</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.09071410223841667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7000114917755127</v>
+      </c>
+      <c r="C49" t="n">
+        <v>166.6798063105258</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9810833333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9846</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01186695538521947</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.07162162601792564</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.05725969523191452</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6943027973175049</v>
+      </c>
+      <c r="C50" t="n">
+        <v>171.6186080929207</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9783500000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9796</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.009988976166705075</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.08085589235027631</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0742832476273179</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7269208431243896</v>
+      </c>
+      <c r="C51" t="n">
+        <v>175.4870242652484</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9806333333333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9798</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01144136670652939</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.07101980145089329</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.06693782676011324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4116694927215576</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1257666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.317344095395959</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.315570302804311</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.312974166870117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5678846836090088</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.82030440041061</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3630333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3553</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.834305711414503</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.816187131404877</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.809045624732971</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5616815090179443</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.59675063864462</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6324666666666666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6342</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.02081505112026</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9899149686098099</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9648065030574798</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5823755264282227</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.38401113987555</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8913166666666666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9002</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.392639552121577</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3819207474589348</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3593029171228409</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5827419757843018</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76.65878819468313</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9255166666666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2470606490969658</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2552756098409494</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2412697657942772</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6186902523040771</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.35114380192633</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9318</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9422</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2351804440436156</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2372654072940349</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2066831693053245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6036224365234375</v>
+      </c>
+      <c r="C8" t="n">
+        <v>81.04685298697053</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9619166666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9661</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1118253536684358</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1322633950660626</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1185860507190228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6372349262237549</v>
+      </c>
+      <c r="C9" t="n">
+        <v>82.11485070335978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9639333333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9657</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1007439917682306</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1199068718279401</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1131438508629799</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6351735591888428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>82.78750090321283</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.97045</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08246557843749938</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1005520987013976</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0932923812419176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5976884365081787</v>
+      </c>
+      <c r="C11" t="n">
+        <v>83.21115189461383</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9782666666666666</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9799</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0529124752982803</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.07236656633516153</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.06396545786410571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6473984718322754</v>
+      </c>
+      <c r="C12" t="n">
+        <v>83.53010204914703</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9727333333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9747</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.08398971787613371</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.09770561102777719</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.089751435816288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6049892902374268</v>
+      </c>
+      <c r="C13" t="n">
+        <v>83.67885964488184</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9776333333333334</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9807</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05238445591100532</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.07311551462238033</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06463503874838353</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6089637279510498</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83.77255069399658</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9731166666666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9752</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06245995223846124</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09012479788313309</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.08526457101106644</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6265482902526855</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83.87776211950955</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9761333333333333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9768</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05440417912019336</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.08232691480467717</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08351461179554462</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5774655342102051</v>
+      </c>
+      <c r="C16" t="n">
+        <v>83.89782417282193</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9737166666666667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9735</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.06152315279873817</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08747700732201338</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.08692557588219643</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6640720367431641</v>
+      </c>
+      <c r="C17" t="n">
+        <v>83.9704597280885</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9772333333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04538441093071648</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0760854716723164</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.06115937549620867</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5902321338653564</v>
+      </c>
+      <c r="C18" t="n">
+        <v>90.91044345393207</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9810833333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9807</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03594093668558027</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.06362133066480359</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.05982769392430783</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6351284980773926</v>
+      </c>
+      <c r="C19" t="n">
+        <v>88.40545877889964</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9797833333333333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03835729511616671</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0675598840850095</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06347421072423458</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6184663772583008</v>
+      </c>
+      <c r="C20" t="n">
+        <v>86.74947452382571</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9773666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9784</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04532662542212917</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07789685474708677</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.07102006636559963</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7088847160339355</v>
+      </c>
+      <c r="C21" t="n">
+        <v>86.06859809748499</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9863499999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9868</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01943709638030471</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04576572331910332</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04437778238207102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6910452842712402</v>
+      </c>
+      <c r="C22" t="n">
+        <v>92.72772391481359</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.98625</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01793452313564637</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04670218508690595</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.04666748568415642</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6774227619171143</v>
+      </c>
+      <c r="C23" t="n">
+        <v>98.79262748400355</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9829166666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02518184200111453</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.05758562890502314</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.05136005058884621</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5942652225494385</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100.4064008232066</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9826666666666667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9841</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02599737580622668</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05884205189843972</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.05633659847080708</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.602264404296875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>95.95447405865707</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.97235</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05085005690141216</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.09374655062953631</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08559993728995323</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7455644607543945</v>
+      </c>
+      <c r="C26" t="n">
+        <v>92.01712469019384</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9845333333333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9842</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02380250710184159</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05627225879579782</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05490798093378544</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6589059829711914</v>
+      </c>
+      <c r="C27" t="n">
+        <v>97.00695160580213</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9864000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01276934487522458</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04591420013457537</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04524735314771533</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.619124174118042</v>
+      </c>
+      <c r="C28" t="n">
+        <v>99.3342198994813</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9820333333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02740948655359123</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.06466693401647111</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.06366445887833834</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5827775001525879</v>
+      </c>
+      <c r="C29" t="n">
+        <v>100.2748285788111</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9854666666666667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9862</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01549912601678997</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05309818257422497</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.04640220105648041</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5927166938781738</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96.6708078822525</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9828833333333333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02261587138459815</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.06078947402226428</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.05306681767106056</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5673778057098389</v>
+      </c>
+      <c r="C31" t="n">
+        <v>93.6874347627579</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9850333333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01618946395794173</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0539200697094202</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.04568839389830828</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5834391117095947</v>
+      </c>
+      <c r="C32" t="n">
+        <v>93.08727617121809</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9820666666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02014290528756607</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.06427895068190992</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.06604211516678334</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7062218189239502</v>
+      </c>
+      <c r="C33" t="n">
+        <v>96.10344576183691</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.98755</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01013907061449414</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.04444550291324655</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.04115542396903038</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.692516565322876</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100.9187368756278</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9839833333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01575982196094549</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.05947862641575436</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.05304491445422173</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5870223045349121</v>
+      </c>
+      <c r="C35" t="n">
+        <v>102.8589626357996</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9749833333333333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0458255745774216</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.09630261960749825</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.08172030467540026</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6305942535400391</v>
+      </c>
+      <c r="C36" t="n">
+        <v>96.67699646824552</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.98315</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02047109182255909</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05663630302685003</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.05043678060173988</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6917779445648193</v>
+      </c>
+      <c r="C37" t="n">
+        <v>93.20425700082829</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02153244250170563</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.05751643590629101</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.05678993351757526</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6859807968139648</v>
+      </c>
+      <c r="C38" t="n">
+        <v>98.63289438814429</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9887166666666667</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.006031104763362395</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.04083784769754857</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03656438011676073</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6983184814453125</v>
+      </c>
+      <c r="C39" t="n">
+        <v>102.5118433943908</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.007678095363940963</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04398644166067243</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04225548747926951</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7075746059417725</v>
+      </c>
+      <c r="C40" t="n">
+        <v>104.9548971427571</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9867166666666667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9862</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.008680852150301571</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05219386056996882</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0505561787635088</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6837766170501709</v>
+      </c>
+      <c r="C41" t="n">
+        <v>106.4935901257778</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9869333333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.007788094464163093</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.05059621682933842</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.05072347987443208</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.706418514251709</v>
+      </c>
+      <c r="C42" t="n">
+        <v>107.4626953276508</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9838166666666667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9849</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01244492238670912</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.05875419752361874</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.05418603308498859</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6985065937042236</v>
+      </c>
+      <c r="C43" t="n">
+        <v>107.0187527079135</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9887666666666667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.003747622773516923</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.04500641456979793</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03553844997659326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7357094287872314</v>
+      </c>
+      <c r="C44" t="n">
+        <v>107.7934551321036</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9913999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.002863068033310929</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04135834675495668</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0342998331412673</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.617720365524292</v>
+      </c>
+      <c r="C45" t="n">
+        <v>108.1625750260089</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9874333333333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.00763174222969531</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04696841170080006</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.04034612877294421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7061648368835449</v>
+      </c>
+      <c r="C46" t="n">
+        <v>104.1226158108019</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9880166666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.006294724425179479</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.04617164228887607</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0458979619666934</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.705148458480835</v>
+      </c>
+      <c r="C47" t="n">
+        <v>105.9693996751031</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9890333333333333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.003487690263959255</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04288344226467113</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.04104650262743235</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6798529624938965</v>
+      </c>
+      <c r="C48" t="n">
+        <v>107.1325477945648</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.004941858893447637</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0456074063637061</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03988581951707602</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7434911727905273</v>
+      </c>
+      <c r="C49" t="n">
+        <v>107.8651259667914</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9863333333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9877</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.008308141671991705</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.05324576412870859</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04373885206878185</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7438654899597168</v>
+      </c>
+      <c r="C50" t="n">
+        <v>108.3265210113633</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9889833333333333</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9921</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.004011437310153902</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.04218196240641798</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.03285442343913018</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.6983873844146729</v>
+      </c>
+      <c r="C51" t="n">
+        <v>108.6171185137548</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01611504372988787</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.06414695059259733</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.05674947574734688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.468214750289917</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09913333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.303891944885254</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.303297181924184</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.302117705345154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5957491397857666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53.47774314134077</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2713666666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2776</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.980124911240169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.953851157426834</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.939794206619263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6666350364685059</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.55923679826758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4891333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.45135942697525</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.407268309593201</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.391837704181671</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6243135929107666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>59.57891764862799</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8928166666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8981</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4219755781548364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3748606982330481</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3636686146259308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6293244361877441</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60.57833381344057</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9490333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9519</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1885813407599926</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1805551320314407</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1698012083768844</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6420900821685791</v>
+      </c>
+      <c r="C7" t="n">
+        <v>61.07288356881914</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.94435</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1854011744260788</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1880664264162381</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1706094793975353</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6736404895782471</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61.31760590687632</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9750666666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.09329802218292441</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08762838176141183</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07545663677155971</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6065323352813721</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61.43870398061479</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9732499999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.09197926289801087</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.09287351692716281</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.08600363917648793</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6336739063262939</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61.4986279891037</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9802999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9806</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05865089052489825</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07017342317849398</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.067407501116395</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6332106590270996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>61.52828070514224</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9807333333333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05820208741351962</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.06379522069667777</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05593461841344834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6739823818206787</v>
+      </c>
+      <c r="C12" t="n">
+        <v>61.54295401540022</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9769166666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06579370056944234</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07572424275179704</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.07410223446786404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6574771404266357</v>
+      </c>
+      <c r="C13" t="n">
+        <v>61.5502149365802</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04531031446531415</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05720392347623904</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05948895439505577</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6633200645446777</v>
+      </c>
+      <c r="C14" t="n">
+        <v>61.55380792108435</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9847</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03491298254313213</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.05069977349291245</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04582594279199838</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6422240734100342</v>
+      </c>
+      <c r="C15" t="n">
+        <v>61.55558586872033</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.97705</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.06094034099951386</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07719784763952096</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0805702667683363</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.64202880859375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>61.5564656659454</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9766833333333333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.06049142644873687</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08044850894560417</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.07454855721443891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6655964851379395</v>
+      </c>
+      <c r="C17" t="n">
+        <v>61.55690102362495</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9852833333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9868</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03260984251807843</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04855864519874255</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04757339796051383</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6635270118713379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.59766019837916</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.98775</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9869</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02209797215514949</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04156374669012924</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04079295573756099</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7234790325164795</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61.97699785692458</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9727166666666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9728</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0643618377457772</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.08809971505155166</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.08902074322104454</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6859490871429443</v>
+      </c>
+      <c r="C20" t="n">
+        <v>61.76499660932782</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9863833333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02783628083499414</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.04578252746723592</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04388813460245729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6663706302642822</v>
+      </c>
+      <c r="C21" t="n">
+        <v>61.6600901961335</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.05122429725181844</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07516474801426133</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.07352231591939926</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6455867290496826</v>
+      </c>
+      <c r="C22" t="n">
+        <v>61.78978677848959</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9881333333333333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9877</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02231535756395065</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04021722818724811</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.04086254760622978</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6563620567321777</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61.70551833884252</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9890333333333333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9877</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01682476047426462</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03675251141345749</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0363575641065836</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7293887138366699</v>
+      </c>
+      <c r="C24" t="n">
+        <v>61.72881183801463</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9878166666666667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9873</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02241646132731278</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.03985825375032922</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.03929155073128641</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6656656265258789</v>
+      </c>
+      <c r="C25" t="n">
+        <v>62.33810756983853</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9847666666666667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9842</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02449847463451858</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05049581817972163</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.05090184034779668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7701475620269775</v>
+      </c>
+      <c r="C26" t="n">
+        <v>62.35129556819282</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.98565</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9859</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02404929731772946</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05143583187212546</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.04879660382866859</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6545565128326416</v>
+      </c>
+      <c r="C27" t="n">
+        <v>63.37792926088902</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9901</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01198177159447888</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03815472966913755</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03656559931114316</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6966445446014404</v>
+      </c>
+      <c r="C28" t="n">
+        <v>62.7023582430854</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9864000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01859182270709425</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.04703441942110657</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.04608398228883744</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7632572650909424</v>
+      </c>
+      <c r="C29" t="n">
+        <v>62.40537572117969</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.98955</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01352357088804378</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.03622440722150107</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03562976615503431</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6630620956420898</v>
+      </c>
+      <c r="C30" t="n">
+        <v>62.87244353724639</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9895666666666667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.013506377385264</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03605772992596031</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04153664400801062</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6831564903259277</v>
+      </c>
+      <c r="C31" t="n">
+        <v>62.9042684415167</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9906333333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00745160828061801</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03391907766927034</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.03415286559611559</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7930951118469238</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.71352564405514</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9888666666666667</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01147052265670417</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03856479887229701</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04004276478663087</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7309949398040771</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70.73583665666526</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.98895</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.008751071936317852</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03800650642563899</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03825183548033238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7482767105102539</v>
+      </c>
+      <c r="C34" t="n">
+        <v>68.13656166503797</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9864833333333334</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01430830291938037</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.04738316374520461</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04753603423014283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7453415393829346</v>
+      </c>
+      <c r="C35" t="n">
+        <v>66.27119165738351</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9841166666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02062042449667517</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.05968479209889968</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05152710303664208</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6642036437988281</v>
+      </c>
+      <c r="C36" t="n">
+        <v>71.74170130433339</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.98705</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01616408604812542</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.04717517958100264</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04699810333549977</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6624517440795898</v>
+      </c>
+      <c r="C37" t="n">
+        <v>66.88413212538964</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9853166666666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02552599419640111</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04915142566120873</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04755387930199504</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6248552799224854</v>
+      </c>
+      <c r="C38" t="n">
+        <v>64.41699171627093</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9912333333333333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9899</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.006909613756995116</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03406563413251813</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0344398271292448</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6307196617126465</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64.01053812165412</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9864333333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01760899515689484</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0506670966045931</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04519309429451823</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6412312984466553</v>
+      </c>
+      <c r="C40" t="n">
+        <v>65.20291742211155</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9881333333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01016297083364667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.04528281148523092</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.04127437034621835</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6772372722625732</v>
+      </c>
+      <c r="C41" t="n">
+        <v>64.34828119824012</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9904333333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.004872198209549035</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03476370339049027</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03806171100586653</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7635879516601562</v>
+      </c>
+      <c r="C42" t="n">
+        <v>65.31731863896107</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.005529481870637808</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03894433206490552</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.04059371026232839</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6366524696350098</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64.09483819049045</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9868333333333333</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01316397218532594</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05052558403306951</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.05212686378508806</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7410757541656494</v>
+      </c>
+      <c r="C44" t="n">
+        <v>66.0911837775238</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9880833333333333</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01083455815345847</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04465333433666577</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04501468203961849</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6683802604675293</v>
+      </c>
+      <c r="C45" t="n">
+        <v>71.87399733509707</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.99055</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9912</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.007027430453204683</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03434690604529654</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0350039410404861</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7451565265655518</v>
+      </c>
+      <c r="C46" t="n">
+        <v>69.40814311990795</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9912</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9907</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.004487243744993715</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.03461697605671361</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.03806275520473719</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7438232898712158</v>
+      </c>
+      <c r="C47" t="n">
+        <v>74.77112918968572</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9904833333333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.006319651662488468</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.03751026245687778</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.04323642896488309</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7539365291595459</v>
+      </c>
+      <c r="C48" t="n">
+        <v>76.63371932570347</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.007608513332005324</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0391036555559064</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04242666908539831</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7470827102661133</v>
+      </c>
+      <c r="C49" t="n">
+        <v>77.79206582563798</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01476196610269004</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.04585050611446301</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04712108643725514</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6681516170501709</v>
+      </c>
+      <c r="C50" t="n">
+        <v>78.34611071363366</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9875666666666667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01219906291641694</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.04337031010072678</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.04913310743868351</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7319061756134033</v>
+      </c>
+      <c r="C51" t="n">
+        <v>71.38704740610589</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.99015</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.005378357203361312</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03715532361917818</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0391930628567934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.489290714263916</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08384999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.313914245174777</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.314791361490885</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.31324405670166</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6710474491119385</v>
+      </c>
+      <c r="C3" t="n">
+        <v>48.9150130161219</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5741833333333334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5846</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.206161554141711</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.227560279766718</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.21781644821167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6640450954437256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49.84043027580709</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9461166666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9499</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2216418697949379</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1975568663328886</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1798373244702816</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6457812786102295</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.20385183951811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9555666666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9572000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1534586139824442</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1517491246884068</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1471984073519707</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6241095066070557</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.34657149553049</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9732166666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9737</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08798832179958462</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.09199780548612277</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09388666227459908</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7050039768218994</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50.40261907840996</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9772833333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9791</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.07039842426135975</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07199673360834519</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06743340641260147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6572635173797607</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50.42462958231952</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9816166666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9838</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0573504236877285</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06125781343628963</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05527152735739947</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6653127670288086</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50.43327334994451</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9842666666666666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04866692914517336</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.05544911672671636</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0478669791482389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6515893936157227</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.4366678528174</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9859166666666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04136175604447002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0475956737374266</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04435837976634503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7915177345275879</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50.55390942807163</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.97975</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9792999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05118945426237519</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0684485200792551</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.07057251259684563</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6376028060913086</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.67444831819834</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9867166666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9891</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0329937963516161</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0442848513678958</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.03602560749277472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6549673080444336</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50.78855664947211</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.98605</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9857</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03275489014002585</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.046685926305751</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04475205093622207</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6544671058654785</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50.62576164016338</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.98915</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02895940624688181</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03879454390456279</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03462603809311986</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6474697589874268</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50.51226012721616</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9885333333333334</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01963128285953194</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.03959920108318329</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0399958124384284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6158907413482666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50.46768683134644</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.98015</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9831</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05160080300023159</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.06359978951513767</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05343951359391212</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6564638614654541</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50.54120612658119</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.98515</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9851</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0310169044877052</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04956711824052036</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04619821580126882</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6577372550964355</v>
+      </c>
+      <c r="C18" t="n">
+        <v>51.24908231531675</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9886333333333334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02117208593965618</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03886125280211369</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03961829580366612</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7407476902008057</v>
+      </c>
+      <c r="C19" t="n">
+        <v>51.81901995086292</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9895666666666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01597344547682892</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03664831831896057</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03583432463929057</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6383883953094482</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57.14950483883889</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9895166666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01919371897595063</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03612448462905983</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03428282514214516</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6483564376831055</v>
+      </c>
+      <c r="C21" t="n">
+        <v>53.71159242094284</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9907833333333333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01339240459805375</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0307084516932567</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02976775201968849</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6693582534790039</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.79529368647724</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9898166666666667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01458808314242971</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.03628311012871564</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0397494088858366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7390677928924561</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53.25654190766122</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9805166666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04093583112692721</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06827947314207752</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.05861161053180695</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6535310745239258</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53.76504595177141</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9897666666666667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01665273398130892</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.03545570988208056</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.03214429225772619</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6640408039093018</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51.82500833254466</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9908833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0110396035071913</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03086559323128313</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03058592253364623</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7577712535858154</v>
+      </c>
+      <c r="C26" t="n">
+        <v>52.29316157814394</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.99075</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01270591673786722</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03249984014158448</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03107073977589607</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7255187034606934</v>
+      </c>
+      <c r="C27" t="n">
+        <v>58.25422189091071</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9909833333333333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.008885860857453638</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03311005315432946</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03095177859067917</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7291221618652344</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61.07519774783745</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9896666666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9901</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01362031233379297</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03633874858108659</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03330775545910001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6218771934509277</v>
+      </c>
+      <c r="C29" t="n">
+        <v>61.57774406059554</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9919166666666667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9922</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01016421919257971</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02971471301668013</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03028768775984645</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7861020565032959</v>
+      </c>
+      <c r="C30" t="n">
+        <v>57.81389193071584</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9873</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01982518956465747</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.04302867906323324</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04387035677209496</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6418411731719971</v>
+      </c>
+      <c r="C31" t="n">
+        <v>59.78271125956569</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9905166666666667</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01005224734657414</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03357888835404689</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.03415583344176411</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7338335514068604</v>
+      </c>
+      <c r="C32" t="n">
+        <v>55.78620478273087</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9902333333333333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01121263126704982</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03575895952914531</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03931319992989302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6485381126403809</v>
+      </c>
+      <c r="C33" t="n">
+        <v>59.98707073772565</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9907833333333333</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00897821330563015</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03351580673285449</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0296086186543107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6886582374572754</v>
+      </c>
+      <c r="C34" t="n">
+        <v>54.63446001373394</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9892833333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01398613606829957</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.04111950919808199</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0469771945849061</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7511138916015625</v>
+      </c>
+      <c r="C35" t="n">
+        <v>53.84822726395531</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9921</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.007133445767585629</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.03088643266431366</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.03118217876181006</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7405595779418945</v>
+      </c>
+      <c r="C36" t="n">
+        <v>59.50567001973956</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.99105</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.008533953525055881</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03551389506125512</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03870564326643944</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6491711139678955</v>
+      </c>
+      <c r="C37" t="n">
+        <v>63.03358496877446</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9909666666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9913999999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.009823627930487536</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0347992699360475</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.03556427282746881</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7953851222991943</v>
+      </c>
+      <c r="C38" t="n">
+        <v>63.45661975788074</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9913833333333333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.006686417917941286</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03338301851957415</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03265064711449668</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7380063533782959</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64.62275123697117</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9893333333333333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01424535108988063</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0384402670742323</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03918121615424752</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6438817977905273</v>
+      </c>
+      <c r="C40" t="n">
+        <v>57.63172245083118</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9909333333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9928</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.008161419007416454</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0325561362648538</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.02858823174610734</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7278380393981934</v>
+      </c>
+      <c r="C41" t="n">
+        <v>56.88108284854592</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9919333333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.003925917253132299</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03183942544662084</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03208142244257033</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7965373992919922</v>
+      </c>
+      <c r="C42" t="n">
+        <v>61.78293887296554</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9909666666666667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.007772578186260396</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03484082238671059</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0334404744207859</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7154607772827148</v>
+      </c>
+      <c r="C43" t="n">
+        <v>63.54838979044759</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9905166666666667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.008519438125746405</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03769026814067426</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04281595277134329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6373164653778076</v>
+      </c>
+      <c r="C44" t="n">
+        <v>63.67675318722215</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9912333333333333</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9912</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.009055103693578032</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.03276370338862762</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03252582773566246</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7295324802398682</v>
+      </c>
+      <c r="C45" t="n">
+        <v>59.25176262766468</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9913833333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.006122609508732053</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03344546881271526</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03453099764883518</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8687326908111572</v>
+      </c>
+      <c r="C46" t="n">
+        <v>62.96859268239582</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9906666666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9921</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.008027986278482061</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.03665989992829661</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.02999954889528453</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7516179084777832</v>
+      </c>
+      <c r="C47" t="n">
+        <v>64.50565173033513</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9931833333333333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.00274328111470001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02674800732347649</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.02514009203296155</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7174503803253174</v>
+      </c>
+      <c r="C48" t="n">
+        <v>65.12628172204651</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.99265</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9928</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.003794056973488931</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02931030284865604</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.02856515869498253</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7427165508270264</v>
+      </c>
+      <c r="C49" t="n">
+        <v>65.39606384392873</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9899333333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01120852155270436</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03787584574505066</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.03966677710413933</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7426323890686035</v>
+      </c>
+      <c r="C50" t="n">
+        <v>64.96692675143531</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9907833333333333</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9907</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.00555077093241546</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0377529180298249</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0387721455655992</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7445650100708008</v>
+      </c>
+      <c r="C51" t="n">
+        <v>65.33348338954599</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.004628929526886843</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03520183281216305</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03710334359202534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>